--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -450,10 +450,10 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -449,11 +449,11 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -507,23 +507,23 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>21.2</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>17.3</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
@@ -567,23 +567,23 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>30.2</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -597,23 +597,23 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>40.1</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -627,23 +627,23 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>20.95</v>
+        <v>100</v>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -449,11 +449,11 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -507,23 +507,23 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>100</v>
+        <v>21.2</v>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>100</v>
+        <v>17.3</v>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
@@ -567,23 +567,23 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>100</v>
+        <v>30.2</v>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -597,23 +597,23 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>100</v>
+        <v>40.1</v>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -627,23 +627,23 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>100</v>
+        <v>20.95</v>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -449,11 +449,11 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A+0</t>
         </is>
       </c>
     </row>
@@ -627,23 +627,23 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>20.95</v>
+        <v>40.1</v>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>A+0</t>
+          <t>B++</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>B++</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B0</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
